--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value410.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value410.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.25143971388389</v>
+        <v>3.285523653030396</v>
       </c>
       <c r="B1">
-        <v>1.97571851768799</v>
+        <v>2.928736686706543</v>
       </c>
       <c r="C1">
-        <v>3.21443642855191</v>
+        <v>1.878665089607239</v>
       </c>
       <c r="D1">
-        <v>1.955528337639362</v>
+        <v>1.608091711997986</v>
       </c>
       <c r="E1">
-        <v>0.4790084779552519</v>
+        <v>1.551949143409729</v>
       </c>
     </row>
   </sheetData>
